--- a/mason_bees/data/experiment_1.xlsx
+++ b/mason_bees/data/experiment_1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f16dd73819800d56/partners/Samuel/organic_farming_mason_bees/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="30" documentId="8_{F3E80C00-58AA-1D42-91BE-B2E631920DB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{04292DD2-7C7F-E14B-85AE-A53AC4BD3BEB}"/>
+  <xr:revisionPtr revIDLastSave="35" documentId="8_{F3E80C00-58AA-1D42-91BE-B2E631920DB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C7D293EF-9503-6B41-A856-B8DA863ED1D1}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{3ECA34DE-848C-F44E-944D-E1641A4DCDC1}"/>
   </bookViews>
@@ -3496,9 +3496,6 @@
         <v>0</v>
       </c>
       <c r="F71" s="3"/>
-      <c r="G71" s="1">
-        <v>0</v>
-      </c>
       <c r="R71" s="1">
         <v>0</v>
       </c>
@@ -4024,9 +4021,6 @@
         <v>0</v>
       </c>
       <c r="F84" s="3"/>
-      <c r="G84" s="1">
-        <v>0</v>
-      </c>
       <c r="L84" s="1"/>
       <c r="R84" s="1">
         <v>0</v>
@@ -4622,9 +4616,6 @@
         <v>20</v>
       </c>
       <c r="F99" s="3"/>
-      <c r="G99" s="1">
-        <v>0</v>
-      </c>
       <c r="H99" s="1">
         <v>4</v>
       </c>
@@ -4851,9 +4842,6 @@
         <v>20</v>
       </c>
       <c r="F104" s="3"/>
-      <c r="G104" s="1">
-        <v>0</v>
-      </c>
       <c r="H104" s="1">
         <v>2</v>
       </c>
@@ -4882,9 +4870,6 @@
         <v>20</v>
       </c>
       <c r="F105" s="3"/>
-      <c r="G105" s="1">
-        <v>0</v>
-      </c>
       <c r="H105" s="1">
         <v>3</v>
       </c>
@@ -7370,9 +7355,6 @@
         <v>22</v>
       </c>
       <c r="F174" s="3"/>
-      <c r="G174" s="1">
-        <v>0</v>
-      </c>
       <c r="H174" s="1">
         <v>2</v>
       </c>
